--- a/4 COURSE/Основы бизнеса и права/Лабораторная работа 2/Халалеенко_2_ФИТ_4_1.xlsx
+++ b/4 COURSE/Основы бизнеса и права/Лабораторная работа 2/Халалеенко_2_ФИТ_4_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Files\Univer\4 COURSE\Основы бизнеса и права\Лабораторная работа 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00507930-9393-40F3-8567-623CB7A18CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F76637-F6FD-4476-B4E8-940456AB9CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1 исх данные, решение" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
   <si>
     <t>Лабораторная работа 2</t>
   </si>
@@ -689,6 +689,24 @@
   <si>
     <t>Фi = Фвыб ∙ Di /100</t>
   </si>
+  <si>
+    <t>Ставка НДС на 2024г.</t>
+  </si>
+  <si>
+    <t>НДС = В ∙ Сндс / (1+Сндс)</t>
+  </si>
+  <si>
+    <t>0,2*Потч</t>
+  </si>
+  <si>
+    <t>ЧПдив = ЧПр ∙ Дчп див / 100</t>
+  </si>
+  <si>
+    <t>Дприв.ак = Nак ∙ Цак ∙ Dприв.ак∙ Rприв.ак / (100 ∙ 100)</t>
+  </si>
+  <si>
+    <t>Rпр.ак = Дпр.ак ∙ 100 / (Nак ∙ (100 - Dприв.ак) ∙ Цак</t>
+  </si>
 </sst>
 </file>
 
@@ -698,7 +716,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,8 +857,30 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,8 +905,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1055,11 +1107,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1182,6 +1260,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="25" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1398,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1000"/>
+  <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="89" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
@@ -1411,22 +1502,22 @@
     <col min="3" max="26" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.45">
+    <row r="1" spans="1:16" ht="18.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.6">
+    <row r="2" spans="1:16" ht="14.6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.9">
+    <row r="3" spans="1:16" ht="15.9">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.6">
+    <row r="4" spans="1:16" ht="14.6">
       <c r="A4" s="45" t="s">
         <v>3</v>
       </c>
@@ -1442,8 +1533,20 @@
       <c r="I4" s="48"/>
       <c r="J4" s="48"/>
       <c r="K4" s="49"/>
-    </row>
-    <row r="5" spans="1:11" ht="14.6">
+      <c r="L4" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56">
+        <v>20</v>
+      </c>
+      <c r="P4" s="56">
+        <f>O4/100</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14.6">
       <c r="A5" s="46"/>
       <c r="B5" s="4">
         <v>1</v>
@@ -1476,11 +1579,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="27" customHeight="1">
+    <row r="6" spans="1:16" ht="27" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="55">
         <v>10500</v>
       </c>
       <c r="C6" s="6">
@@ -1511,11 +1614,11 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1">
+    <row r="7" spans="1:16" ht="18.75" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="55">
         <v>7350</v>
       </c>
       <c r="C7" s="6">
@@ -1546,11 +1649,11 @@
         <v>6950</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="24.75" customHeight="1">
+    <row r="8" spans="1:16" ht="24.75" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="55">
         <v>132</v>
       </c>
       <c r="C8" s="6">
@@ -1581,11 +1684,11 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1">
+    <row r="9" spans="1:16" ht="30" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="55">
         <v>280</v>
       </c>
       <c r="C9" s="6">
@@ -1616,11 +1719,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.5" customHeight="1">
+    <row r="10" spans="1:16" ht="28.5" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="55">
         <v>75</v>
       </c>
       <c r="C10" s="6">
@@ -1651,11 +1754,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.6">
+    <row r="11" spans="1:16" ht="14.6">
       <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="55">
         <v>-13</v>
       </c>
       <c r="C11" s="6">
@@ -1686,11 +1789,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1">
+    <row r="12" spans="1:16" ht="16.5" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="55">
         <v>40</v>
       </c>
       <c r="C12" s="6">
@@ -1721,11 +1824,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="26.25" customHeight="1">
+    <row r="13" spans="1:16" ht="26.25" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="55">
         <v>12</v>
       </c>
       <c r="C13" s="6">
@@ -1756,11 +1859,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="26.25" customHeight="1">
+    <row r="14" spans="1:16" ht="26.25" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="55">
         <v>5</v>
       </c>
       <c r="C14" s="6">
@@ -1791,11 +1894,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="55">
         <v>12</v>
       </c>
       <c r="C15" s="6">
@@ -1826,11 +1929,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.5" customHeight="1">
+    <row r="16" spans="1:16" ht="28.5" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="55">
         <v>10</v>
       </c>
       <c r="C16" s="6">
@@ -1861,11 +1964,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="55">
         <v>18</v>
       </c>
       <c r="C17" s="6">
@@ -1896,7 +1999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.6">
+    <row r="18" spans="1:12" ht="14.6">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1909,12 +2012,12 @@
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" spans="1:11" ht="14.6">
+    <row r="19" spans="1:12" ht="14.6">
       <c r="A19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="15">
-        <f t="shared" ref="B19" si="0">B6*0.2/(1+0.2)</f>
+      <c r="B19" s="53">
+        <f>B6*P4/(1+P4)</f>
         <v>1750</v>
       </c>
       <c r="C19" s="15"/>
@@ -1926,13 +2029,16 @@
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="1:11" ht="14.6">
+      <c r="L19" s="56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="14.6">
       <c r="A20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="15">
-        <f t="shared" ref="B20" si="1">B6-B19-B7</f>
+      <c r="B20" s="53">
+        <f>B6-B19-B7</f>
         <v>1400</v>
       </c>
       <c r="C20" s="15"/>
@@ -1944,13 +2050,16 @@
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L20" s="56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="15">
-        <f t="shared" ref="B21" si="2">B20+B8+B9+B10+B11</f>
+      <c r="B21" s="53">
+        <f>B8+B9+B10+B11+B20</f>
         <v>1874</v>
       </c>
       <c r="C21" s="15"/>
@@ -1962,13 +2071,16 @@
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L21" s="57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="15">
-        <f t="shared" ref="B22" si="3">0.2*B21</f>
+      <c r="B22" s="53">
+        <f>0.2*B21</f>
         <v>374.8</v>
       </c>
       <c r="C22" s="15"/>
@@ -1980,13 +2092,16 @@
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L22" s="56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="15">
-        <f t="shared" ref="B23" si="4">B21-B22</f>
+      <c r="B23" s="53">
+        <f>B21-B22</f>
         <v>1499.2</v>
       </c>
       <c r="C23" s="15"/>
@@ -1998,13 +2113,16 @@
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L23" s="56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="15">
-        <f t="shared" ref="B24" si="5">B23-B13</f>
+      <c r="B24" s="53">
+        <f>B23-B13</f>
         <v>1487.2</v>
       </c>
       <c r="C24" s="15"/>
@@ -2016,13 +2134,16 @@
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L24" s="56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="15">
-        <f t="shared" ref="B25" si="6">B24*B14/100</f>
+      <c r="B25" s="53">
+        <f>B24*B14/100</f>
         <v>74.36</v>
       </c>
       <c r="C25" s="15"/>
@@ -2034,13 +2155,16 @@
       <c r="I25" s="15"/>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L25" s="56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="15">
-        <f t="shared" ref="B26" si="7">(B15*1000*B12*B16*(B17)/(100*100))/1000</f>
+      <c r="B26" s="53">
+        <f>(B12*B15*B16*B17)/(100*100)</f>
         <v>8.64</v>
       </c>
       <c r="C26" s="15"/>
@@ -2052,13 +2176,16 @@
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L26" s="56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="15">
-        <f t="shared" ref="B27" si="8">B25-B26</f>
+      <c r="B27" s="53">
+        <f>B25-B26</f>
         <v>65.72</v>
       </c>
       <c r="C27" s="15"/>
@@ -2070,14 +2197,17 @@
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L27" s="56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="16">
-        <f t="shared" ref="B28" si="9">B27*1000/40</f>
-        <v>1643</v>
+      <c r="B28" s="54">
+        <f>B15*0.9*1000</f>
+        <v>10800</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -2088,14 +2218,15 @@
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L28" s="56"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="17">
-        <f t="shared" ref="B29" si="10">B27*1000*100/(B15*1000*(100-B16)*B12)</f>
-        <v>0.15212962962962964</v>
+      <c r="B29" s="53">
+        <f>B27*100*1000/((B15*1000*(100-B26))*B12)*100</f>
+        <v>14.986500291885582</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -2106,13 +2237,16 @@
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L29" s="56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="18">
-        <f t="shared" ref="B30" si="11">B12*(B29)</f>
+      <c r="B30" s="53">
+        <f>B27*1000/B28</f>
         <v>6.0851851851851855</v>
       </c>
       <c r="C30" s="18"/>
@@ -2125,10 +2259,10 @@
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="19"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="19"/>
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1">
@@ -4243,8 +4377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="77" workbookViewId="0">
-      <selection activeCell="I44" sqref="I24:I44"/>
+    <sheetView topLeftCell="A11" zoomScale="90" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
@@ -5066,7 +5200,10 @@
       <c r="A35" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="15"/>
+      <c r="B35" s="15">
+        <f>B19-B21</f>
+        <v>73.5</v>
+      </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
